--- a/Bird Survey Data/point_coverage.xlsx
+++ b/Bird Survey Data/point_coverage.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10111"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9FC8950-C1D5-0643-BA99-64A19143BEF4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34601540-E75B-874F-B819-E6D16F8E508C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="22260" windowHeight="12640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="17">
   <si>
     <t>transect_name</t>
   </si>
@@ -68,6 +68,9 @@
   </si>
   <si>
     <t>herbaceous</t>
+  </si>
+  <si>
+    <t>point_id</t>
   </si>
 </sst>
 </file>
@@ -385,795 +388,945 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H50"/>
+  <dimension ref="A1:I50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="J34" sqref="J34"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="A51" sqref="A51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>15</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>9</v>
       </c>
-      <c r="H1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2">
+      <c r="I1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2">
         <v>1</v>
       </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
       <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
         <v>60</v>
       </c>
-      <c r="D2">
-        <v>10</v>
-      </c>
       <c r="E2">
+        <v>10</v>
+      </c>
+      <c r="F2">
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3">
         <v>2</v>
       </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
       <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3">
         <v>30</v>
       </c>
-      <c r="D3">
-        <v>10</v>
-      </c>
       <c r="E3">
+        <v>10</v>
+      </c>
+      <c r="F3">
         <v>40</v>
       </c>
-      <c r="G3">
-        <v>10</v>
-      </c>
-      <c r="H3" t="s">
+      <c r="H3">
+        <v>10</v>
+      </c>
+      <c r="I3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4">
         <v>3</v>
       </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
       <c r="C4">
+        <v>3</v>
+      </c>
+      <c r="D4">
         <v>90</v>
       </c>
-      <c r="D4">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5">
+      <c r="E4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5">
         <v>4</v>
       </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
       <c r="C5">
+        <v>4</v>
+      </c>
+      <c r="D5">
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
         <v>5</v>
       </c>
       <c r="C6">
+        <v>5</v>
+      </c>
+      <c r="D6">
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7">
-        <v>6</v>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>5</v>
       </c>
       <c r="C7">
+        <v>6</v>
+      </c>
+      <c r="D7">
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8">
-        <v>7</v>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>5</v>
       </c>
       <c r="C8">
+        <v>7</v>
+      </c>
+      <c r="D8">
         <v>60</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>30</v>
       </c>
-      <c r="F8">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>5</v>
-      </c>
-      <c r="B9">
-        <v>8</v>
+      <c r="G8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>5</v>
       </c>
       <c r="C9">
+        <v>8</v>
+      </c>
+      <c r="D9">
         <v>90</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>0</v>
       </c>
-      <c r="E9">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>5</v>
-      </c>
-      <c r="B10">
+      <c r="F9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10">
         <v>9</v>
       </c>
+      <c r="B10" t="s">
+        <v>5</v>
+      </c>
       <c r="C10">
+        <v>9</v>
+      </c>
+      <c r="D10">
         <v>100</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>5</v>
-      </c>
-      <c r="B11">
-        <v>10</v>
-      </c>
-      <c r="E11">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>1</v>
+      </c>
+      <c r="B11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11">
+        <v>10</v>
+      </c>
+      <c r="F11">
         <v>80</v>
       </c>
-      <c r="F11">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>5</v>
-      </c>
-      <c r="B12">
+      <c r="G11">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12">
         <v>11</v>
       </c>
+      <c r="B12" t="s">
+        <v>5</v>
+      </c>
       <c r="C12">
+        <v>11</v>
+      </c>
+      <c r="D12">
         <v>30</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>40</v>
       </c>
-      <c r="F12">
-        <v>10</v>
-      </c>
       <c r="G12">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>6</v>
-      </c>
-      <c r="B13">
+        <v>10</v>
+      </c>
+      <c r="H12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>14</v>
+      </c>
+      <c r="B13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13">
         <v>1</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <v>70</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>6</v>
-      </c>
-      <c r="B14">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>15</v>
+      </c>
+      <c r="B14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14">
         <v>2</v>
       </c>
-      <c r="E14">
+      <c r="F14">
         <v>80</v>
       </c>
-      <c r="F14">
-        <v>10</v>
-      </c>
       <c r="G14">
         <v>10</v>
       </c>
-      <c r="H14" t="s">
+      <c r="H14">
+        <v>10</v>
+      </c>
+      <c r="I14" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>6</v>
-      </c>
-      <c r="B15">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>16</v>
+      </c>
+      <c r="B15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15">
         <v>3</v>
       </c>
-      <c r="C15">
+      <c r="D15">
         <v>80</v>
       </c>
-      <c r="E15">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>6</v>
-      </c>
-      <c r="B16">
+      <c r="F15">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>17</v>
+      </c>
+      <c r="B16" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16">
         <v>4</v>
       </c>
-      <c r="C16">
+      <c r="D16">
         <v>50</v>
       </c>
-      <c r="E16">
+      <c r="F16">
         <v>50</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>6</v>
-      </c>
-      <c r="B17">
-        <v>5</v>
-      </c>
-      <c r="E17">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>18</v>
+      </c>
+      <c r="B17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17">
+        <v>5</v>
+      </c>
+      <c r="F17">
         <v>90</v>
       </c>
-      <c r="F17">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>6</v>
-      </c>
-      <c r="B18">
-        <v>6</v>
-      </c>
-      <c r="E18">
+      <c r="G17">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>19</v>
+      </c>
+      <c r="B18" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18">
+        <v>6</v>
+      </c>
+      <c r="F18">
         <v>100</v>
       </c>
-      <c r="F18">
+      <c r="G18">
         <v>0</v>
       </c>
-      <c r="H18" t="s">
+      <c r="I18" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>6</v>
-      </c>
-      <c r="B19">
-        <v>7</v>
-      </c>
-      <c r="E19">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>20</v>
+      </c>
+      <c r="B19" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19">
+        <v>7</v>
+      </c>
+      <c r="F19">
         <v>100</v>
       </c>
-      <c r="H19" t="s">
+      <c r="I19" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>6</v>
-      </c>
-      <c r="B20">
-        <v>8</v>
-      </c>
-      <c r="E20">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>21</v>
+      </c>
+      <c r="B20" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20">
+        <v>8</v>
+      </c>
+      <c r="F20">
         <v>70</v>
       </c>
-      <c r="F20">
+      <c r="G20">
         <v>30</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>6</v>
-      </c>
-      <c r="B21">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>22</v>
+      </c>
+      <c r="B21" t="s">
+        <v>6</v>
+      </c>
+      <c r="C21">
         <v>9</v>
       </c>
-      <c r="C21">
+      <c r="D21">
         <v>50</v>
       </c>
-      <c r="E21">
+      <c r="F21">
         <v>50</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>6</v>
-      </c>
-      <c r="B22">
-        <v>10</v>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>6</v>
       </c>
       <c r="C22">
+        <v>10</v>
+      </c>
+      <c r="D22">
         <v>100</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>6</v>
-      </c>
-      <c r="B23">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>6</v>
+      </c>
+      <c r="C23">
         <v>11</v>
       </c>
-      <c r="C23">
+      <c r="D23">
         <v>80</v>
       </c>
-      <c r="G23">
-        <v>20</v>
-      </c>
-      <c r="H23" t="s">
+      <c r="H23">
+        <v>20</v>
+      </c>
+      <c r="I23" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>7</v>
-      </c>
-      <c r="B24">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>25</v>
+      </c>
+      <c r="B24" t="s">
+        <v>7</v>
+      </c>
+      <c r="C24">
         <v>1</v>
       </c>
-      <c r="C24">
+      <c r="D24">
         <v>90</v>
       </c>
-      <c r="G24">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>7</v>
-      </c>
-      <c r="B25">
+      <c r="H24">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>26</v>
+      </c>
+      <c r="B25" t="s">
+        <v>7</v>
+      </c>
+      <c r="C25">
         <v>2</v>
       </c>
-      <c r="C25">
+      <c r="D25">
         <v>60</v>
       </c>
-      <c r="E25">
-        <v>10</v>
-      </c>
       <c r="F25">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G25">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>7</v>
-      </c>
-      <c r="B26">
+        <v>20</v>
+      </c>
+      <c r="H25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>27</v>
+      </c>
+      <c r="B26" t="s">
+        <v>7</v>
+      </c>
+      <c r="C26">
         <v>3</v>
       </c>
-      <c r="C26">
+      <c r="D26">
         <v>80</v>
       </c>
-      <c r="G26">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>7</v>
-      </c>
-      <c r="B27">
+      <c r="H26">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>28</v>
+      </c>
+      <c r="B27" t="s">
+        <v>7</v>
+      </c>
+      <c r="C27">
         <v>4</v>
       </c>
-      <c r="C27">
+      <c r="D27">
         <v>80</v>
       </c>
-      <c r="E27">
-        <v>10</v>
-      </c>
-      <c r="G27">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>7</v>
-      </c>
-      <c r="B28">
-        <v>5</v>
+      <c r="F27">
+        <v>10</v>
+      </c>
+      <c r="H27">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>19</v>
+      </c>
+      <c r="B28" t="s">
+        <v>7</v>
       </c>
       <c r="C28">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D28">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E28">
+        <v>20</v>
+      </c>
+      <c r="F28">
         <v>50</v>
       </c>
-      <c r="F28">
-        <v>10</v>
-      </c>
       <c r="G28">
         <v>10</v>
       </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>7</v>
-      </c>
-      <c r="B29">
-        <v>6</v>
+      <c r="H28">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>30</v>
+      </c>
+      <c r="B29" t="s">
+        <v>7</v>
       </c>
       <c r="C29">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D29">
         <v>20</v>
       </c>
       <c r="E29">
+        <v>20</v>
+      </c>
+      <c r="F29">
         <v>40</v>
       </c>
-      <c r="G29">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>7</v>
-      </c>
-      <c r="B30">
+      <c r="H29">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>31</v>
+      </c>
+      <c r="B30" t="s">
         <v>7</v>
       </c>
       <c r="C30">
-        <v>10</v>
-      </c>
-      <c r="E30">
+        <v>7</v>
+      </c>
+      <c r="D30">
+        <v>10</v>
+      </c>
+      <c r="F30">
         <v>70</v>
       </c>
-      <c r="G30">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>7</v>
-      </c>
-      <c r="B31">
-        <v>8</v>
-      </c>
-      <c r="E31">
+      <c r="H30">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>32</v>
+      </c>
+      <c r="B31" t="s">
+        <v>7</v>
+      </c>
+      <c r="C31">
+        <v>8</v>
+      </c>
+      <c r="F31">
         <v>70</v>
       </c>
-      <c r="F31">
-        <v>20</v>
-      </c>
       <c r="G31">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>7</v>
-      </c>
-      <c r="B32">
+        <v>20</v>
+      </c>
+      <c r="H31">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>33</v>
+      </c>
+      <c r="B32" t="s">
+        <v>7</v>
+      </c>
+      <c r="C32">
         <v>9</v>
       </c>
-      <c r="E32">
+      <c r="F32">
         <v>60</v>
       </c>
-      <c r="F32">
+      <c r="G32">
         <v>30</v>
       </c>
-      <c r="G32">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
-        <v>7</v>
-      </c>
-      <c r="B33">
-        <v>10</v>
+      <c r="H32">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>34</v>
+      </c>
+      <c r="B33" t="s">
+        <v>7</v>
       </c>
       <c r="C33">
+        <v>10</v>
+      </c>
+      <c r="D33">
         <v>30</v>
       </c>
-      <c r="E33">
+      <c r="F33">
         <v>40</v>
       </c>
-      <c r="F33">
-        <v>20</v>
-      </c>
       <c r="G33">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>7</v>
-      </c>
-      <c r="B34">
+        <v>20</v>
+      </c>
+      <c r="H33">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>35</v>
+      </c>
+      <c r="B34" t="s">
+        <v>7</v>
+      </c>
+      <c r="C34">
         <v>11</v>
       </c>
-      <c r="C34">
+      <c r="D34">
         <v>50</v>
       </c>
-      <c r="E34">
+      <c r="F34">
         <v>30</v>
       </c>
-      <c r="F34">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
-        <v>8</v>
-      </c>
-      <c r="B35">
+      <c r="G34">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>36</v>
+      </c>
+      <c r="B35" t="s">
+        <v>8</v>
+      </c>
+      <c r="C35">
         <v>1</v>
-      </c>
-      <c r="C35">
-        <v>50</v>
       </c>
       <c r="D35">
         <v>50</v>
       </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
-        <v>8</v>
-      </c>
-      <c r="B36">
+      <c r="E35">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>37</v>
+      </c>
+      <c r="B36" t="s">
+        <v>8</v>
+      </c>
+      <c r="C36">
         <v>2</v>
       </c>
-      <c r="C36">
+      <c r="D36">
         <v>80</v>
       </c>
-      <c r="D36">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
-        <v>8</v>
-      </c>
-      <c r="B37">
+      <c r="E36">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>38</v>
+      </c>
+      <c r="B37" t="s">
+        <v>8</v>
+      </c>
+      <c r="C37">
         <v>3</v>
       </c>
-      <c r="C37">
+      <c r="D37">
         <v>100</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
-        <v>8</v>
-      </c>
-      <c r="B38">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>39</v>
+      </c>
+      <c r="B38" t="s">
+        <v>8</v>
+      </c>
+      <c r="C38">
         <v>4</v>
-      </c>
-      <c r="C38">
-        <v>50</v>
       </c>
       <c r="D38">
         <v>50</v>
       </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
-        <v>8</v>
-      </c>
-      <c r="B39">
-        <v>5</v>
+      <c r="E38">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>40</v>
+      </c>
+      <c r="B39" t="s">
+        <v>8</v>
       </c>
       <c r="C39">
-        <v>10</v>
-      </c>
-      <c r="E39">
+        <v>5</v>
+      </c>
+      <c r="D39">
+        <v>10</v>
+      </c>
+      <c r="F39">
         <v>70</v>
       </c>
-      <c r="F39">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
-        <v>8</v>
-      </c>
-      <c r="B40">
-        <v>6</v>
+      <c r="G39">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>41</v>
+      </c>
+      <c r="B40" t="s">
+        <v>8</v>
       </c>
       <c r="C40">
-        <v>20</v>
-      </c>
-      <c r="E40">
+        <v>6</v>
+      </c>
+      <c r="D40">
+        <v>20</v>
+      </c>
+      <c r="F40">
         <v>70</v>
       </c>
-      <c r="F40">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
-        <v>8</v>
-      </c>
-      <c r="B41">
-        <v>7</v>
+      <c r="G40">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>42</v>
+      </c>
+      <c r="B41" t="s">
+        <v>8</v>
       </c>
       <c r="C41">
+        <v>7</v>
+      </c>
+      <c r="D41">
         <v>40</v>
       </c>
-      <c r="D41">
+      <c r="E41">
         <v>60</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
-        <v>8</v>
-      </c>
-      <c r="B42">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>43</v>
+      </c>
+      <c r="B42" t="s">
         <v>8</v>
       </c>
       <c r="C42">
+        <v>8</v>
+      </c>
+      <c r="D42">
         <v>90</v>
       </c>
-      <c r="D42">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
-        <v>8</v>
-      </c>
-      <c r="B43">
+      <c r="E42">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>44</v>
+      </c>
+      <c r="B43" t="s">
+        <v>8</v>
+      </c>
+      <c r="C43">
         <v>9</v>
-      </c>
-      <c r="C43">
-        <v>50</v>
       </c>
       <c r="D43">
         <v>50</v>
       </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
-        <v>8</v>
-      </c>
-      <c r="B44">
-        <v>10</v>
+      <c r="E43">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>45</v>
+      </c>
+      <c r="B44" t="s">
+        <v>8</v>
       </c>
       <c r="C44">
+        <v>10</v>
+      </c>
+      <c r="D44">
         <v>80</v>
       </c>
-      <c r="D44">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
-        <v>8</v>
-      </c>
-      <c r="B45">
+      <c r="E44">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>46</v>
+      </c>
+      <c r="B45" t="s">
+        <v>8</v>
+      </c>
+      <c r="C45">
         <v>11</v>
       </c>
-      <c r="C45">
+      <c r="D45">
         <v>80</v>
       </c>
-      <c r="D45">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
-        <v>8</v>
-      </c>
-      <c r="B46">
+      <c r="E45">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>47</v>
+      </c>
+      <c r="B46" t="s">
+        <v>8</v>
+      </c>
+      <c r="C46">
         <v>12</v>
       </c>
-      <c r="C46">
+      <c r="D46">
         <v>70</v>
       </c>
-      <c r="D46">
+      <c r="E46">
         <v>30</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A47" t="s">
-        <v>8</v>
-      </c>
-      <c r="B47">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>48</v>
+      </c>
+      <c r="B47" t="s">
+        <v>8</v>
+      </c>
+      <c r="C47">
         <v>13</v>
       </c>
-      <c r="C47">
+      <c r="D47">
         <v>80</v>
       </c>
-      <c r="D47">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A48" t="s">
-        <v>8</v>
-      </c>
-      <c r="B48">
+      <c r="E47">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>49</v>
+      </c>
+      <c r="B48" t="s">
+        <v>8</v>
+      </c>
+      <c r="C48">
         <v>14</v>
       </c>
-      <c r="C48">
+      <c r="D48">
         <v>80</v>
       </c>
-      <c r="D48">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A49" t="s">
-        <v>8</v>
-      </c>
-      <c r="B49">
+      <c r="E48">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>50</v>
+      </c>
+      <c r="B49" t="s">
+        <v>8</v>
+      </c>
+      <c r="C49">
         <v>15</v>
       </c>
-      <c r="C49">
+      <c r="D49">
         <v>40</v>
       </c>
-      <c r="D49">
+      <c r="E49">
         <v>60</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A50" t="s">
-        <v>8</v>
-      </c>
-      <c r="B50">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>51</v>
+      </c>
+      <c r="B50" t="s">
+        <v>8</v>
+      </c>
+      <c r="C50">
         <v>16</v>
       </c>
-      <c r="C50">
+      <c r="D50">
         <v>80</v>
       </c>
-      <c r="D50">
+      <c r="E50">
         <v>20</v>
       </c>
     </row>
